--- a/Tablets Distribution - AS Training.xlsx
+++ b/Tablets Distribution - AS Training.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650" tabRatio="709" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650" tabRatio="709" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="All Census Tablets" sheetId="21" r:id="rId1"/>
@@ -16040,7 +16040,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17774,7 +17774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -21146,8 +21146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A32:G142"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A129" zoomScale="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:G142"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A126" zoomScale="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>

--- a/Tablets Distribution - AS Training.xlsx
+++ b/Tablets Distribution - AS Training.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650" tabRatio="709" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650" tabRatio="709" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All Census Tablets" sheetId="21" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="974">
   <si>
     <t>Botha-Bothe</t>
   </si>
@@ -3023,6 +3023,12 @@
   </si>
   <si>
     <t>THNE</t>
+  </si>
+  <si>
+    <t>RAMPA MOTLOHELOA</t>
+  </si>
+  <si>
+    <t>HA0JNW97</t>
   </si>
 </sst>
 </file>
@@ -13967,14 +13973,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14061,6 +14067,21 @@
       <c r="D6" s="39">
         <f>DATE(2016,3,25)</f>
         <v>42454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>972</v>
+      </c>
+      <c r="B7" t="s">
+        <v>844</v>
+      </c>
+      <c r="C7" t="s">
+        <v>973</v>
+      </c>
+      <c r="D7" s="39">
+        <f>DATE(2016,3,29)</f>
+        <v>42458</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -21146,7 +21167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A32:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A126" zoomScale="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A126" zoomScale="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>

--- a/Tablets Distribution - AS Training.xlsx
+++ b/Tablets Distribution - AS Training.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="975">
   <si>
     <t>Botha-Bothe</t>
   </si>
@@ -3029,6 +3029,9 @@
   </si>
   <si>
     <t>HA0JNW97</t>
+  </si>
+  <si>
+    <t>ABIA MOKATI SEBALO</t>
   </si>
 </sst>
 </file>
@@ -14084,6 +14087,18 @@
         <v>42458</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>974</v>
+      </c>
+      <c r="B8" t="s">
+        <v>844</v>
+      </c>
+      <c r="D8" s="39">
+        <f>DATE(2016,3,28)</f>
+        <v>42457</v>
+      </c>
+    </row>
     <row r="10" spans="1:5">
       <c r="E10" s="39"/>
     </row>

--- a/Tablets Distribution - AS Training.xlsx
+++ b/Tablets Distribution - AS Training.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650" tabRatio="709" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650" tabRatio="709" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="All Census Tablets" sheetId="21" r:id="rId1"/>
@@ -3103,7 +3103,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3119,6 +3119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3324,7 +3330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3399,6 +3405,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9043,8 +9055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95:B102"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -10256,25 +10268,25 @@
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A55" s="31">
+    <row r="55" spans="1:9" s="52" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A55" s="51">
         <v>53</v>
       </c>
-      <c r="B55" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="31" t="str">
+      <c r="B55" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="51" t="str">
         <f t="shared" si="1"/>
         <v>HJH0DASV</v>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="I55" s="30" t="s">
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I55" s="52" t="s">
         <v>603</v>
       </c>
     </row>
@@ -13976,7 +13988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
